--- a/Data/polls.xlsx
+++ b/Data/polls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mac Tan\Desktop\Stuff\Elections\2019\Israel-2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E35A4A-1735-47BC-AE96-4A608338DBA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E274BEFC-0C73-4EC9-80A2-33B74B7573C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-5733" windowWidth="26301" windowHeight="14305" activeTab="3" xr2:uid="{0DE1B94D-B05B-4FF7-9BF3-1803C0C1CFBD}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="3" xr2:uid="{0DE1B94D-B05B-4FF7-9BF3-1803C0C1CFBD}"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="275">
   <si>
     <t>Channel 2[5]</t>
   </si>
@@ -851,6 +851,15 @@
   </si>
   <si>
     <t>Smith/Jerusalem Post[6]</t>
+  </si>
+  <si>
+    <t>Midgam/Channel 12[4]</t>
+  </si>
+  <si>
+    <t>Panel Project HaMidgam/Channel 13[5]</t>
+  </si>
+  <si>
+    <t>Midgam/Army Radio[4]</t>
   </si>
 </sst>
 </file>
@@ -9028,10 +9037,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CC49F9-512D-4648-8DF6-8D5ABA179EFE}">
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -9106,22 +9115,22 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>43546</v>
+        <v>43550</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -9130,13 +9139,13 @@
         <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L2">
         <v>4</v>
@@ -9145,67 +9154,67 @@
         <v>5</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P2">
         <v>7</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:V4" si="0">SUM(C2:P2)</f>
+        <f t="shared" ref="V2:V8" si="0">SUM(C2:P2)</f>
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>43546</v>
+        <v>43550</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>30</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3">
         <v>6</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
@@ -9214,46 +9223,46 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43546</v>
+        <v>43548</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>4</v>
       </c>
       <c r="K4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O4">
         <v>6</v>
@@ -9268,151 +9277,151 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>43544</v>
+        <v>43548</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O5">
         <v>5</v>
       </c>
       <c r="P5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V5">
-        <f>SUM(C5:P5)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>43544</v>
+        <v>43546</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>9</v>
       </c>
       <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
         <v>31</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>29</v>
-      </c>
       <c r="L6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>6</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P6">
         <v>7</v>
       </c>
       <c r="V6">
-        <f t="shared" ref="V5:V35" si="1">SUM(C6:P6)</f>
-        <v>119</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>43543</v>
+        <v>43546</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <v>7</v>
@@ -9424,16 +9433,16 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>43541</v>
+        <v>43546</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -9442,16 +9451,16 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>30</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -9460,7 +9469,7 @@
         <v>4</v>
       </c>
       <c r="K8">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L8">
         <v>4</v>
@@ -9475,55 +9484,55 @@
         <v>6</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>43538</v>
+        <v>43544</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9">
         <v>6</v>
       </c>
       <c r="N9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O9">
         <v>5</v>
@@ -9532,16 +9541,16 @@
         <v>7</v>
       </c>
       <c r="V9">
-        <f t="shared" si="1"/>
+        <f>SUM(C9:P9)</f>
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>43538</v>
+        <v>43544</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -9550,52 +9559,52 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>31</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P10">
         <v>7</v>
       </c>
       <c r="V10">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f t="shared" ref="V10:V39" si="1">SUM(C10:P10)</f>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>43537</v>
+        <v>43543</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -9607,19 +9616,19 @@
         <v>6</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K11">
         <v>32</v>
@@ -9628,16 +9637,16 @@
         <v>4</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>7</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
@@ -9646,38 +9655,38 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>43535</v>
+        <v>43541</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
         <v>31</v>
       </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>28</v>
-      </c>
       <c r="L12">
         <v>4</v>
       </c>
@@ -9685,10 +9694,10 @@
         <v>6</v>
       </c>
       <c r="N12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P12">
         <v>6</v>
@@ -9700,49 +9709,49 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>43532</v>
+        <v>43538</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>33</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P13">
         <v>7</v>
@@ -9754,13 +9763,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>43531</v>
+        <v>43538</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -9781,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K14">
         <v>28</v>
@@ -9790,13 +9799,13 @@
         <v>4</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P14">
         <v>7</v>
@@ -9808,10 +9817,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>43531</v>
+        <v>43537</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -9820,16 +9829,16 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -9838,22 +9847,22 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L15">
         <v>4</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
@@ -9862,52 +9871,52 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>43529</v>
+        <v>43535</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>7</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L16">
         <v>4</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O16">
         <v>5</v>
       </c>
       <c r="P16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
@@ -9916,13 +9925,13 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>43529</v>
+        <v>43532</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -9931,16 +9940,16 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>4</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -9952,16 +9961,16 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N17">
         <v>6</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
@@ -9970,10 +9979,10 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>43529</v>
+        <v>43531</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -9985,13 +9994,13 @@
         <v>4</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -10000,34 +10009,34 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P18">
         <v>7</v>
       </c>
       <c r="V18">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>43529</v>
+        <v>43531</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -10036,16 +10045,16 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F19">
         <v>8</v>
       </c>
       <c r="G19">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -10054,22 +10063,22 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O19">
         <v>4</v>
       </c>
       <c r="P19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V19">
         <f t="shared" si="1"/>
@@ -10078,25 +10087,25 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>43527</v>
+        <v>43529</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -10111,16 +10120,16 @@
         <v>30</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P20">
         <v>7</v>
@@ -10132,10 +10141,10 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>43525</v>
+        <v>43529</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -10144,40 +10153,40 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>4</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V21">
         <f t="shared" si="1"/>
@@ -10186,25 +10195,25 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>43525</v>
+        <v>43529</v>
       </c>
       <c r="B22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -10216,40 +10225,40 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P22">
         <v>7</v>
       </c>
       <c r="V22">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>43525</v>
+        <v>43529</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -10258,10 +10267,10 @@
         <v>8</v>
       </c>
       <c r="G23">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -10270,49 +10279,49 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>43524</v>
+        <v>43527</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -10321,10 +10330,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -10336,7 +10345,7 @@
         <v>7</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P24">
         <v>7</v>
@@ -10348,25 +10357,25 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>43524</v>
+        <v>43525</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>6</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -10378,22 +10387,22 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O25">
         <v>6</v>
       </c>
       <c r="P25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V25">
         <f t="shared" si="1"/>
@@ -10402,34 +10411,34 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>43523</v>
+        <v>43525</v>
       </c>
       <c r="B26" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>29</v>
@@ -10438,13 +10447,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N26">
         <v>5</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P26">
         <v>7</v>
@@ -10456,28 +10465,28 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>43520</v>
+        <v>43525</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27">
         <v>8</v>
       </c>
       <c r="G27">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -10486,52 +10495,52 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V27">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>43520</v>
+        <v>43524</v>
       </c>
       <c r="B28" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G28">
         <v>35</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -10549,7 +10558,7 @@
         <v>6</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O28">
         <v>5</v>
@@ -10564,25 +10573,25 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>43518</v>
+        <v>43524</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -10591,52 +10600,52 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P29">
         <v>6</v>
       </c>
       <c r="V29">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>43517</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>242</v>
+        <v>43523</v>
+      </c>
+      <c r="B30" t="s">
+        <v>251</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -10657,10 +10666,10 @@
         <v>8</v>
       </c>
       <c r="N30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P30">
         <v>7</v>
@@ -10672,19 +10681,19 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>43517</v>
+        <v>43520</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <v>8</v>
@@ -10693,31 +10702,31 @@
         <v>36</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V31">
         <f t="shared" si="1"/>
@@ -10726,46 +10735,46 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>43517</v>
+        <v>43520</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>4</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <v>35</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K32">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O32">
         <v>5</v>
@@ -10780,79 +10789,79 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>43517</v>
+        <v>43518</v>
       </c>
       <c r="B33" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K33">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P33">
         <v>6</v>
       </c>
       <c r="V33">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43517</v>
       </c>
-      <c r="B34" t="s">
-        <v>246</v>
+      <c r="B34" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="C34">
         <v>6</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>4</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -10864,16 +10873,16 @@
         <v>4</v>
       </c>
       <c r="K34">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O34">
         <v>5</v>
@@ -10891,19 +10900,19 @@
         <v>43517</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G35">
         <v>36</v>
@@ -10915,25 +10924,25 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K35">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V35">
         <f t="shared" si="1"/>
@@ -10942,39 +10951,38 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>43516</v>
+        <v>43517</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G36">
-        <f>R36+T36</f>
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
         <v>32</v>
       </c>
-      <c r="H36">
-        <v>4</v>
-      </c>
-      <c r="I36">
-        <v>4</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>31</v>
-      </c>
       <c r="L36">
         <v>0</v>
       </c>
@@ -10982,61 +10990,49 @@
         <v>8</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P36">
         <v>7</v>
       </c>
-      <c r="Q36">
-        <v>5</v>
-      </c>
-      <c r="R36">
-        <v>13</v>
-      </c>
-      <c r="S36">
-        <v>5</v>
-      </c>
-      <c r="T36">
-        <v>19</v>
-      </c>
-      <c r="U36">
-        <v>6</v>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>43513</v>
+        <v>43517</v>
       </c>
       <c r="B37" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>4</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G62" si="2">R37+T37</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K37">
         <v>32</v>
@@ -11045,1032 +11041,997 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P37">
         <v>6</v>
       </c>
-      <c r="Q37">
-        <v>7</v>
-      </c>
-      <c r="R37">
-        <v>10</v>
-      </c>
-      <c r="S37">
-        <v>5</v>
-      </c>
-      <c r="T37">
-        <v>24</v>
-      </c>
-      <c r="U37">
-        <v>6</v>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
+        <v>43517</v>
+      </c>
+      <c r="B38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>36</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>30</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <v>7</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>43517</v>
+      </c>
+      <c r="B39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>36</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>26</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <v>8</v>
+      </c>
+      <c r="O39">
+        <v>6</v>
+      </c>
+      <c r="P39">
+        <v>7</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>43516</v>
+      </c>
+      <c r="B40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <f>R40+T40</f>
+        <v>32</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>31</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>8</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>7</v>
+      </c>
+      <c r="Q40">
+        <v>5</v>
+      </c>
+      <c r="R40">
+        <v>13</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>19</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>43513</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G66" si="2">R41+T41</f>
+        <v>34</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>32</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>9</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="P41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>7</v>
+      </c>
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>24</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>43513</v>
+      </c>
+      <c r="B42" t="s">
         <v>213</v>
       </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="G38">
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H38">
-        <v>5</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>4</v>
-      </c>
-      <c r="K38">
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
         <v>30</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>7</v>
-      </c>
-      <c r="N38">
-        <v>4</v>
-      </c>
-      <c r="O38">
-        <v>6</v>
-      </c>
-      <c r="P38">
-        <v>7</v>
-      </c>
-      <c r="Q38">
-        <v>5</v>
-      </c>
-      <c r="R38">
-        <v>12</v>
-      </c>
-      <c r="S38">
-        <v>4</v>
-      </c>
-      <c r="T38">
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>7</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <v>6</v>
+      </c>
+      <c r="P42">
+        <v>7</v>
+      </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>12</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
         <v>18</v>
       </c>
-      <c r="U38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="U42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>43512</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>214</v>
       </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39">
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H39">
-        <v>4</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>5</v>
-      </c>
-      <c r="K39">
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
         <v>30</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>8</v>
-      </c>
-      <c r="N39">
-        <v>5</v>
-      </c>
-      <c r="O39">
-        <v>5</v>
-      </c>
-      <c r="P39">
-        <v>6</v>
-      </c>
-      <c r="Q39">
-        <v>6</v>
-      </c>
-      <c r="R39">
-        <v>10</v>
-      </c>
-      <c r="S39">
-        <v>5</v>
-      </c>
-      <c r="T39">
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>8</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>6</v>
+      </c>
+      <c r="R43">
+        <v>10</v>
+      </c>
+      <c r="S43">
+        <v>5</v>
+      </c>
+      <c r="T43">
         <v>20</v>
       </c>
-      <c r="U39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="U43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>43509</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>215</v>
       </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-      <c r="D40">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40">
-        <v>11</v>
-      </c>
-      <c r="G40">
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>11</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="H40">
-        <v>4</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>6</v>
-      </c>
-      <c r="K40">
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
+      </c>
+      <c r="K44">
         <v>30</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>10</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>5</v>
-      </c>
-      <c r="P40">
-        <v>7</v>
-      </c>
-      <c r="Q40">
-        <v>6</v>
-      </c>
-      <c r="R40">
-        <v>11</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>10</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>5</v>
+      </c>
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>6</v>
+      </c>
+      <c r="R44">
+        <v>11</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
         <v>20</v>
       </c>
-      <c r="U40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="U44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>43508</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>216</v>
       </c>
-      <c r="C41">
-        <v>7</v>
-      </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-      <c r="F41">
-        <v>9</v>
-      </c>
-      <c r="G41">
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H41">
-        <v>6</v>
-      </c>
-      <c r="I41">
-        <v>4</v>
-      </c>
-      <c r="J41">
-        <v>4</v>
-      </c>
-      <c r="K41">
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45">
         <v>30</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>7</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>6</v>
-      </c>
-      <c r="P41">
-        <v>7</v>
-      </c>
-      <c r="Q41">
-        <v>5</v>
-      </c>
-      <c r="R41">
-        <v>11</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>7</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>6</v>
+      </c>
+      <c r="P45">
+        <v>7</v>
+      </c>
+      <c r="Q45">
+        <v>5</v>
+      </c>
+      <c r="R45">
+        <v>11</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
         <v>19</v>
       </c>
-      <c r="U41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="U45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>43508</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
         <v>217</v>
       </c>
-      <c r="C42">
-        <v>7</v>
-      </c>
-      <c r="D42">
-        <v>6</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-      <c r="F42">
-        <v>8</v>
-      </c>
-      <c r="G42">
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="H42">
-        <v>5</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>4</v>
-      </c>
-      <c r="K42">
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46">
         <v>32</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>8</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>6</v>
-      </c>
-      <c r="P42">
-        <v>7</v>
-      </c>
-      <c r="Q42">
-        <v>6</v>
-      </c>
-      <c r="R42">
-        <v>11</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>8</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>6</v>
+      </c>
+      <c r="P46">
+        <v>7</v>
+      </c>
+      <c r="Q46">
+        <v>6</v>
+      </c>
+      <c r="R46">
+        <v>11</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <v>21</v>
       </c>
-      <c r="U42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="U46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>43504</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>218</v>
       </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>7</v>
-      </c>
-      <c r="G43">
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>5</v>
-      </c>
-      <c r="K43">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
         <v>32</v>
       </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>8</v>
-      </c>
-      <c r="N43">
-        <v>4</v>
-      </c>
-      <c r="O43">
-        <v>6</v>
-      </c>
-      <c r="P43">
-        <v>7</v>
-      </c>
-      <c r="Q43">
-        <v>5</v>
-      </c>
-      <c r="R43">
-        <v>11</v>
-      </c>
-      <c r="S43">
-        <v>4</v>
-      </c>
-      <c r="T43">
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>8</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>6</v>
+      </c>
+      <c r="P47">
+        <v>7</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>11</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
+      <c r="T47">
         <v>23</v>
       </c>
-      <c r="U43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="U47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>43503</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" t="s">
         <v>153</v>
       </c>
-      <c r="C44">
-        <v>7</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>7</v>
-      </c>
-      <c r="G44">
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="H44">
-        <v>5</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>5</v>
-      </c>
-      <c r="K44">
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
         <v>32</v>
       </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>8</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>6</v>
-      </c>
-      <c r="P44">
-        <v>7</v>
-      </c>
-      <c r="Q44">
-        <v>5</v>
-      </c>
-      <c r="R44">
-        <v>11</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>8</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>6</v>
+      </c>
+      <c r="P48">
+        <v>7</v>
+      </c>
+      <c r="Q48">
+        <v>5</v>
+      </c>
+      <c r="R48">
+        <v>11</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
         <v>22</v>
       </c>
-      <c r="U44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="U48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>43503</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B49" t="s">
         <v>219</v>
       </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-      <c r="D45">
-        <v>7</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-      <c r="G45">
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>4</v>
-      </c>
-      <c r="K45">
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
         <v>32</v>
       </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>9</v>
-      </c>
-      <c r="N45">
-        <v>5</v>
-      </c>
-      <c r="O45">
-        <v>5</v>
-      </c>
-      <c r="P45">
-        <v>5</v>
-      </c>
-      <c r="Q45">
-        <v>7</v>
-      </c>
-      <c r="R45">
-        <v>10</v>
-      </c>
-      <c r="S45">
-        <v>5</v>
-      </c>
-      <c r="T45">
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>9</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>5</v>
+      </c>
+      <c r="Q49">
+        <v>7</v>
+      </c>
+      <c r="R49">
+        <v>10</v>
+      </c>
+      <c r="S49">
+        <v>5</v>
+      </c>
+      <c r="T49">
         <v>24</v>
       </c>
-      <c r="U45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="U49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>43503</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B50" t="s">
         <v>154</v>
       </c>
-      <c r="C46">
-        <v>6</v>
-      </c>
-      <c r="D46">
-        <v>7</v>
-      </c>
-      <c r="E46">
-        <v>5</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
-      </c>
-      <c r="G46">
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="H46">
-        <v>5</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
         <v>34</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>6</v>
-      </c>
-      <c r="N46">
-        <v>6</v>
-      </c>
-      <c r="O46">
-        <v>4</v>
-      </c>
-      <c r="P46">
-        <v>7</v>
-      </c>
-      <c r="Q46">
-        <v>7</v>
-      </c>
-      <c r="R46">
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>6</v>
+      </c>
+      <c r="N50">
+        <v>6</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
+        <v>7</v>
+      </c>
+      <c r="Q50">
+        <v>7</v>
+      </c>
+      <c r="R50">
         <v>13</v>
       </c>
-      <c r="S46">
-        <v>6</v>
-      </c>
-      <c r="T46">
+      <c r="S50">
+        <v>6</v>
+      </c>
+      <c r="T50">
         <v>22</v>
       </c>
-      <c r="U46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="U50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>43503</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B51" t="s">
         <v>220</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>11</v>
-      </c>
-      <c r="E47">
-        <v>7</v>
-      </c>
-      <c r="F47">
-        <v>5</v>
-      </c>
-      <c r="G47">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>5</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>35</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>7</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>6</v>
-      </c>
-      <c r="P47">
-        <v>9</v>
-      </c>
-      <c r="Q47">
-        <v>11</v>
-      </c>
-      <c r="R47">
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>7</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>6</v>
+      </c>
+      <c r="P51">
+        <v>9</v>
+      </c>
+      <c r="Q51">
+        <v>11</v>
+      </c>
+      <c r="R51">
         <v>14</v>
       </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
         <v>21</v>
       </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>43502</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B52" t="s">
         <v>221</v>
       </c>
-      <c r="C48">
-        <v>6</v>
-      </c>
-      <c r="D48">
-        <v>6</v>
-      </c>
-      <c r="E48">
-        <v>6</v>
-      </c>
-      <c r="F48">
-        <v>5</v>
-      </c>
-      <c r="G48">
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="H48">
-        <v>5</v>
-      </c>
-      <c r="I48">
-        <v>4</v>
-      </c>
-      <c r="J48">
-        <v>5</v>
-      </c>
-      <c r="K48">
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
         <v>30</v>
       </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>8</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>5</v>
-      </c>
-      <c r="P48">
-        <v>6</v>
-      </c>
-      <c r="Q48">
-        <v>6</v>
-      </c>
-      <c r="R48">
-        <v>12</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>8</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>5</v>
+      </c>
+      <c r="P52">
+        <v>6</v>
+      </c>
+      <c r="Q52">
+        <v>6</v>
+      </c>
+      <c r="R52">
+        <v>12</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
         <v>22</v>
       </c>
-      <c r="U48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>43502</v>
-      </c>
-      <c r="B49" t="s">
-        <v>222</v>
-      </c>
-      <c r="C49">
-        <v>7</v>
-      </c>
-      <c r="D49">
-        <v>6</v>
-      </c>
-      <c r="E49">
-        <v>4</v>
-      </c>
-      <c r="F49">
-        <v>6</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>5</v>
-      </c>
-      <c r="K49">
-        <v>32</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>7</v>
-      </c>
-      <c r="N49">
-        <v>5</v>
-      </c>
-      <c r="O49">
-        <v>5</v>
-      </c>
-      <c r="P49">
-        <v>6</v>
-      </c>
-      <c r="Q49">
-        <v>6</v>
-      </c>
-      <c r="R49">
-        <v>11</v>
-      </c>
-      <c r="S49">
-        <v>5</v>
-      </c>
-      <c r="T49">
-        <v>22</v>
-      </c>
-      <c r="U49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>43500</v>
-      </c>
-      <c r="B50" t="s">
-        <v>223</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
-      <c r="D50">
-        <v>7</v>
-      </c>
-      <c r="E50">
-        <v>4</v>
-      </c>
-      <c r="F50">
-        <v>5</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="H50">
-        <v>5</v>
-      </c>
-      <c r="I50">
-        <v>4</v>
-      </c>
-      <c r="J50">
-        <v>5</v>
-      </c>
-      <c r="K50">
-        <v>30</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>7</v>
-      </c>
-      <c r="N50">
-        <v>6</v>
-      </c>
-      <c r="O50">
-        <v>5</v>
-      </c>
-      <c r="P50">
-        <v>6</v>
-      </c>
-      <c r="Q50">
-        <v>7</v>
-      </c>
-      <c r="R50">
-        <v>9</v>
-      </c>
-      <c r="S50">
-        <v>6</v>
-      </c>
-      <c r="T50">
-        <v>22</v>
-      </c>
-      <c r="U50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>43497</v>
-      </c>
-      <c r="B51" t="s">
-        <v>224</v>
-      </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51">
-        <v>5</v>
-      </c>
-      <c r="F51">
-        <v>6</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51">
-        <v>4</v>
-      </c>
-      <c r="J51">
-        <v>5</v>
-      </c>
-      <c r="K51">
-        <v>31</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>6</v>
-      </c>
-      <c r="N51">
-        <v>4</v>
-      </c>
-      <c r="O51">
-        <v>4</v>
-      </c>
-      <c r="P51">
-        <v>7</v>
-      </c>
-      <c r="Q51">
-        <v>5</v>
-      </c>
-      <c r="R51">
-        <v>12</v>
-      </c>
-      <c r="S51">
-        <v>4</v>
-      </c>
-      <c r="T51">
-        <v>20</v>
-      </c>
-      <c r="U51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>43496</v>
-      </c>
-      <c r="B52" t="s">
-        <v>225</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>9</v>
-      </c>
-      <c r="E52">
-        <v>4</v>
-      </c>
-      <c r="F52">
-        <v>5</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="H52">
-        <v>5</v>
-      </c>
-      <c r="I52">
-        <v>4</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>28</v>
-      </c>
-      <c r="L52">
-        <v>4</v>
-      </c>
-      <c r="M52">
-        <v>7</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>4</v>
-      </c>
-      <c r="P52">
-        <v>7</v>
-      </c>
-      <c r="Q52">
-        <v>9</v>
-      </c>
-      <c r="R52">
-        <v>9</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>19</v>
-      </c>
       <c r="U52">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>43495</v>
+        <v>43502</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53">
         <v>6</v>
@@ -12089,22 +12050,22 @@
         <v>4</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K53">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
       <c r="M53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O53">
         <v>5</v>
@@ -12116,40 +12077,40 @@
         <v>6</v>
       </c>
       <c r="R53">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T53">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U53">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>43495</v>
+        <v>43500</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E54">
         <v>4</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>5</v>
@@ -12158,7 +12119,7 @@
         <v>4</v>
       </c>
       <c r="J54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K54">
         <v>30</v>
@@ -12170,58 +12131,58 @@
         <v>7</v>
       </c>
       <c r="N54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O54">
         <v>5</v>
       </c>
       <c r="P54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R54">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T54">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U54">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>43495</v>
+        <v>43497</v>
       </c>
       <c r="B55" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C55">
         <v>6</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -12233,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N55">
         <v>4</v>
@@ -12242,19 +12203,19 @@
         <v>4</v>
       </c>
       <c r="P55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R55">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S55">
         <v>4</v>
       </c>
       <c r="T55">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U55">
         <v>6</v>
@@ -12262,26 +12223,26 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>43495</v>
+        <v>43496</v>
       </c>
       <c r="B56" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H56">
         <v>5</v>
@@ -12290,19 +12251,19 @@
         <v>4</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M56">
         <v>7</v>
       </c>
       <c r="N56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O56">
         <v>4</v>
@@ -12311,43 +12272,43 @@
         <v>7</v>
       </c>
       <c r="Q56">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R56">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T56">
         <v>19</v>
       </c>
       <c r="U56">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>43489</v>
+        <v>43495</v>
       </c>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57">
         <v>6</v>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>4</v>
@@ -12356,16 +12317,16 @@
         <v>4</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K57">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N57">
         <v>4</v>
@@ -12380,24 +12341,24 @@
         <v>6</v>
       </c>
       <c r="R57">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S57">
         <v>4</v>
       </c>
       <c r="T57">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="U57">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>43487</v>
+        <v>43495</v>
       </c>
       <c r="B58" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -12406,26 +12367,26 @@
         <v>6</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>5</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K58">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -12437,7 +12398,7 @@
         <v>4</v>
       </c>
       <c r="O58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P58">
         <v>7</v>
@@ -12446,13 +12407,13 @@
         <v>6</v>
       </c>
       <c r="R58">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S58">
         <v>4</v>
       </c>
       <c r="T58">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="U58">
         <v>6</v>
@@ -12460,83 +12421,92 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>43482</v>
+        <v>43495</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F59">
         <v>8</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K59">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N59">
         <v>4</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q59">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R59">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S59">
         <v>4</v>
       </c>
       <c r="T59">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="U59">
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>43482</v>
+        <v>43495</v>
       </c>
       <c r="B60" t="s">
-        <v>233</v>
+        <v>229</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E60">
         <v>5</v>
       </c>
       <c r="F60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -12545,16 +12515,16 @@
         <v>4</v>
       </c>
       <c r="J60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K60">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N60">
         <v>4</v>
@@ -12566,52 +12536,61 @@
         <v>7</v>
       </c>
       <c r="Q60">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R60">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S60">
         <v>4</v>
       </c>
       <c r="T60">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="U60">
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>43481</v>
+        <v>43489</v>
       </c>
       <c r="B61" t="s">
-        <v>234</v>
+        <v>230</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K61">
         <v>31</v>
       </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
       <c r="M61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N61">
         <v>4</v>
@@ -12623,24 +12602,27 @@
         <v>6</v>
       </c>
       <c r="Q61">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R61">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S61">
         <v>4</v>
       </c>
       <c r="T61">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="U61">
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>43481</v>
+        <v>43487</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -12656,28 +12638,28 @@
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K62">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
       <c r="M62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O62">
         <v>6</v>
@@ -12689,15 +12671,258 @@
         <v>6</v>
       </c>
       <c r="R62">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T62">
         <v>13</v>
       </c>
       <c r="U62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>43482</v>
+      </c>
+      <c r="B63" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>4</v>
+      </c>
+      <c r="K63">
+        <v>28</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>9</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <v>5</v>
+      </c>
+      <c r="P63">
+        <v>7</v>
+      </c>
+      <c r="Q63">
+        <v>12</v>
+      </c>
+      <c r="R63">
+        <v>13</v>
+      </c>
+      <c r="S63">
+        <v>4</v>
+      </c>
+      <c r="T63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>43482</v>
+      </c>
+      <c r="B64" t="s">
+        <v>233</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>33</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>9</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <v>4</v>
+      </c>
+      <c r="P64">
+        <v>7</v>
+      </c>
+      <c r="Q64">
+        <v>10</v>
+      </c>
+      <c r="R64">
+        <v>15</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>43481</v>
+      </c>
+      <c r="B65" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>31</v>
+      </c>
+      <c r="M65">
+        <v>7</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <v>5</v>
+      </c>
+      <c r="P65">
+        <v>6</v>
+      </c>
+      <c r="Q65">
+        <v>12</v>
+      </c>
+      <c r="R65">
+        <v>10</v>
+      </c>
+      <c r="S65">
+        <v>4</v>
+      </c>
+      <c r="T65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>43481</v>
+      </c>
+      <c r="B66" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>6</v>
+      </c>
+      <c r="K66">
+        <v>32</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>8</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>6</v>
+      </c>
+      <c r="P66">
+        <v>7</v>
+      </c>
+      <c r="Q66">
+        <v>6</v>
+      </c>
+      <c r="R66">
+        <v>14</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>13</v>
+      </c>
+      <c r="U66">
         <v>6</v>
       </c>
     </row>

--- a/Data/polls.xlsx
+++ b/Data/polls.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mac Tan\Desktop\Stuff\Elections\2019\Israel-2019\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mac Tan\Desktop\Stuff\Elections\2019\Python-elections\Israel-2019-Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1317E1-9276-416C-949B-7DB4A820BFCA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4DC6A7-F6AB-4A26-AD1E-0B99E53FFA55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="3" xr2:uid="{0DE1B94D-B05B-4FF7-9BF3-1803C0C1CFBD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="293">
   <si>
     <t>Channel 2[5]</t>
   </si>
@@ -908,6 +908,12 @@
   </si>
   <si>
     <t>Smith/Maariv[8]</t>
+  </si>
+  <si>
+    <t>Panel Project HaMidgam/Statnet/Channel 13[10]</t>
+  </si>
+  <si>
+    <t>Maagar Mohot/Radio 103FM[12]</t>
   </si>
 </sst>
 </file>
@@ -9085,10 +9091,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CC49F9-512D-4648-8DF6-8D5ABA179EFE}">
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -9166,10 +9172,10 @@
         <v>43560</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -9178,13 +9184,13 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -9193,76 +9199,76 @@
         <v>4</v>
       </c>
       <c r="K2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2">
         <v>6</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:V8" si="0">SUM(C2:P2)</f>
+        <f t="shared" ref="V2:V10" si="0">SUM(C2:P2)</f>
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>43559</v>
+        <v>43560</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>9</v>
       </c>
       <c r="G3">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>28</v>
       </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>27</v>
-      </c>
       <c r="L3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3">
         <v>6</v>
       </c>
       <c r="P3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
@@ -9271,10 +9277,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43559</v>
+        <v>43560</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>290</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -9286,10 +9292,10 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -9301,7 +9307,7 @@
         <v>4</v>
       </c>
       <c r="K4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -9310,10 +9316,10 @@
         <v>6</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P4">
         <v>7</v>
@@ -9328,49 +9334,49 @@
         <v>43559</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>27</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>6</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
@@ -9382,7 +9388,7 @@
         <v>43559</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -9394,7 +9400,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -9406,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <v>26</v>
@@ -9436,25 +9442,25 @@
         <v>43559</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -9463,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -9475,10 +9481,10 @@
         <v>6</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
@@ -9490,7 +9496,7 @@
         <v>43559</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -9505,34 +9511,34 @@
         <v>10</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
@@ -9541,10 +9547,10 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>43558</v>
+        <v>43559</v>
       </c>
       <c r="B9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -9556,49 +9562,49 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>30</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9">
         <v>6</v>
       </c>
       <c r="N9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P9">
         <v>6</v>
       </c>
       <c r="V9">
-        <f t="shared" ref="V9:V18" si="1">SUM(C9:P9)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>43558</v>
+        <v>43559</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -9613,79 +9619,79 @@
         <v>10</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P10">
         <v>6</v>
       </c>
       <c r="V10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>43557</v>
+        <v>43558</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11">
         <v>29</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>7</v>
@@ -9697,52 +9703,52 @@
         <v>6</v>
       </c>
       <c r="V11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="V11:V20" si="1">SUM(C11:P11)</f>
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>43555</v>
+        <v>43558</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12">
+        <v>27</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
         <v>30</v>
       </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>31</v>
-      </c>
       <c r="L12">
         <v>5</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -9757,49 +9763,49 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>43555</v>
+        <v>43557</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M13">
         <v>5</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P13">
         <v>6</v>
@@ -9811,38 +9817,38 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>43553</v>
+        <v>43555</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
         <v>31</v>
       </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>29</v>
-      </c>
       <c r="L14">
         <v>5</v>
       </c>
@@ -9850,13 +9856,13 @@
         <v>6</v>
       </c>
       <c r="N14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V14">
         <f t="shared" si="1"/>
@@ -9865,10 +9871,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>43552</v>
+        <v>43555</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>281</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -9880,10 +9886,10 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -9895,22 +9901,22 @@
         <v>4</v>
       </c>
       <c r="K15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L15">
         <v>5</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <v>5</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
@@ -9919,43 +9925,43 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>43552</v>
+        <v>43553</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16">
+        <v>31</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
         <v>29</v>
       </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>30</v>
-      </c>
       <c r="L16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>7</v>
@@ -9964,7 +9970,7 @@
         <v>6</v>
       </c>
       <c r="P16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
@@ -9976,22 +9982,22 @@
         <v>43552</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -10000,25 +10006,25 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17">
         <v>6</v>
       </c>
       <c r="N17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
@@ -10030,35 +10036,35 @@
         <v>43552</v>
       </c>
       <c r="B18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>30</v>
       </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>29</v>
-      </c>
       <c r="L18">
         <v>4</v>
       </c>
@@ -10066,7 +10072,7 @@
         <v>7</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O18">
         <v>6</v>
@@ -10084,73 +10090,73 @@
         <v>43552</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V19">
-        <f t="shared" ref="V19:V27" si="2">SUM(C19:P19)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>43551</v>
+        <v>43552</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20">
         <v>30</v>
@@ -10165,40 +10171,40 @@
         <v>4</v>
       </c>
       <c r="K20">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>43550</v>
+        <v>43552</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -10213,79 +10219,79 @@
         <v>4</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M21">
         <v>5</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P21">
         <v>7</v>
       </c>
       <c r="V21">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="V21:V29" si="2">SUM(C21:P21)</f>
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>43550</v>
+        <v>43551</v>
       </c>
       <c r="B22" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>30</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K22">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P22">
         <v>7</v>
@@ -10297,28 +10303,28 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>43548</v>
+        <v>43550</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <v>10</v>
       </c>
       <c r="G23">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -10351,28 +10357,28 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>43548</v>
+        <v>43550</v>
       </c>
       <c r="B24" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -10387,16 +10393,16 @@
         <v>6</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V24">
         <f t="shared" si="2"/>
@@ -10405,37 +10411,37 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>43546</v>
+        <v>43548</v>
       </c>
       <c r="B25" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K25">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L25">
         <v>4</v>
@@ -10444,10 +10450,10 @@
         <v>5</v>
       </c>
       <c r="N25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P25">
         <v>7</v>
@@ -10459,37 +10465,37 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>43546</v>
+        <v>43548</v>
       </c>
       <c r="B26" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L26">
         <v>6</v>
@@ -10498,10 +10504,10 @@
         <v>5</v>
       </c>
       <c r="N26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P26">
         <v>6</v>
@@ -10516,46 +10522,46 @@
         <v>43546</v>
       </c>
       <c r="B27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27">
         <v>30</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L27">
         <v>4</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N27">
         <v>6</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P27">
         <v>7</v>
@@ -10567,67 +10573,67 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>43544</v>
+        <v>43546</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28">
         <v>4</v>
       </c>
       <c r="K28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V28">
-        <f>SUM(C28:P28)</f>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>43544</v>
+        <v>43546</v>
       </c>
       <c r="B29" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -10636,10 +10642,10 @@
         <v>5</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -10648,13 +10654,13 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K29">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M29">
         <v>6</v>
@@ -10663,37 +10669,37 @@
         <v>6</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P29">
         <v>7</v>
       </c>
       <c r="V29">
-        <f t="shared" ref="V29:V58" si="3">SUM(C29:P29)</f>
-        <v>119</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>43543</v>
+        <v>43544</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -10702,10 +10708,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K30">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -10714,55 +10720,55 @@
         <v>6</v>
       </c>
       <c r="N30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V30">
-        <f t="shared" si="3"/>
+        <f>SUM(C30:P30)</f>
         <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>43541</v>
+        <v>43544</v>
       </c>
       <c r="B31" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>9</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M31">
         <v>6</v>
@@ -10771,40 +10777,40 @@
         <v>6</v>
       </c>
       <c r="O31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V31">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f t="shared" ref="V31:V60" si="3">SUM(C31:P31)</f>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>43538</v>
+        <v>43543</v>
       </c>
       <c r="B32" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -10813,10 +10819,10 @@
         <v>5</v>
       </c>
       <c r="K32">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M32">
         <v>6</v>
@@ -10825,10 +10831,10 @@
         <v>7</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V32">
         <f t="shared" si="3"/>
@@ -10837,52 +10843,52 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>43538</v>
+        <v>43541</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
         <v>31</v>
       </c>
-      <c r="H33">
-        <v>4</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>4</v>
-      </c>
-      <c r="K33">
-        <v>28</v>
-      </c>
       <c r="L33">
         <v>4</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O33">
         <v>6</v>
       </c>
       <c r="P33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V33">
         <f t="shared" si="3"/>
@@ -10891,49 +10897,49 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>43537</v>
+        <v>43538</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K34">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N34">
         <v>7</v>
       </c>
       <c r="O34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P34">
         <v>7</v>
@@ -10945,22 +10951,22 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>43535</v>
+        <v>43538</v>
       </c>
       <c r="B35" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C35">
         <v>7</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>31</v>
@@ -10981,16 +10987,16 @@
         <v>4</v>
       </c>
       <c r="M35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N35">
         <v>7</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V35">
         <f t="shared" si="3"/>
@@ -10999,46 +11005,46 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>43532</v>
+        <v>43537</v>
       </c>
       <c r="B36" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36">
         <v>10</v>
       </c>
       <c r="G36">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O36">
         <v>6</v>
@@ -11053,22 +11059,22 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>43531</v>
+        <v>43535</v>
       </c>
       <c r="B37" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G37">
         <v>31</v>
@@ -11080,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K37">
         <v>28</v>
@@ -11089,16 +11095,16 @@
         <v>4</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O37">
         <v>5</v>
       </c>
       <c r="P37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V37">
         <f t="shared" si="3"/>
@@ -11107,22 +11113,22 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>43531</v>
+        <v>43532</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38">
         <v>33</v>
@@ -11134,25 +11140,25 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K38">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V38">
         <f t="shared" si="3"/>
@@ -11161,10 +11167,10 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>43529</v>
+        <v>43531</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -11173,16 +11179,16 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G39">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -11191,16 +11197,16 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L39">
         <v>4</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O39">
         <v>5</v>
@@ -11215,52 +11221,52 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>43529</v>
+        <v>43531</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>4</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V40">
         <f t="shared" si="3"/>
@@ -11272,7 +11278,7 @@
         <v>43529</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -11281,13 +11287,13 @@
         <v>4</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G41">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -11302,23 +11308,23 @@
         <v>30</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M41">
         <v>5</v>
       </c>
       <c r="N41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P41">
         <v>7</v>
       </c>
       <c r="V41">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -11326,34 +11332,34 @@
         <v>43529</v>
       </c>
       <c r="B42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C42">
         <v>9</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K42">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -11362,13 +11368,13 @@
         <v>6</v>
       </c>
       <c r="N42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V42">
         <f t="shared" si="3"/>
@@ -11377,25 +11383,25 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>43527</v>
+        <v>43529</v>
       </c>
       <c r="B43" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>5</v>
@@ -11413,10 +11419,10 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O43">
         <v>4</v>
@@ -11426,33 +11432,33 @@
       </c>
       <c r="V43">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>43525</v>
+        <v>43529</v>
       </c>
       <c r="B44" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C44">
         <v>9</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>6</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G44">
         <v>36</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -11461,19 +11467,19 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N44">
         <v>7</v>
       </c>
       <c r="O44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P44">
         <v>7</v>
@@ -11485,25 +11491,25 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>43525</v>
+        <v>43527</v>
       </c>
       <c r="B45" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>6</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G45">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>5</v>
@@ -11515,19 +11521,19 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P45">
         <v>7</v>
@@ -11542,25 +11548,25 @@
         <v>43525</v>
       </c>
       <c r="B46" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>6</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G46">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -11569,49 +11575,49 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N46">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O46">
         <v>6</v>
       </c>
       <c r="P46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V46">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>43524</v>
+        <v>43525</v>
       </c>
       <c r="B47" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47">
         <v>6</v>
       </c>
       <c r="G47">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>5</v>
@@ -11620,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>29</v>
@@ -11629,13 +11635,13 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P47">
         <v>7</v>
@@ -11647,28 +11653,28 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>43524</v>
+        <v>43525</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C48">
         <v>7</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E48">
         <v>6</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G48">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -11677,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -11686,7 +11692,7 @@
         <v>8</v>
       </c>
       <c r="N48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O48">
         <v>6</v>
@@ -11696,33 +11702,33 @@
       </c>
       <c r="V48">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>43523</v>
+        <v>43524</v>
       </c>
       <c r="B49" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G49">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -11737,13 +11743,13 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P49">
         <v>7</v>
@@ -11755,10 +11761,10 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>43520</v>
+        <v>43524</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -11767,16 +11773,16 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G50">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -11785,22 +11791,22 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V50">
         <f t="shared" si="3"/>
@@ -11809,25 +11815,25 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>43520</v>
+        <v>43523</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C51">
         <v>7</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>4</v>
@@ -11845,13 +11851,13 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N51">
         <v>5</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P51">
         <v>7</v>
@@ -11863,67 +11869,67 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>43518</v>
+        <v>43520</v>
       </c>
       <c r="B52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G52">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V52">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>43517</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>242</v>
+        <v>43520</v>
+      </c>
+      <c r="B53" t="s">
+        <v>250</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -11932,7 +11938,7 @@
         <v>4</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G53">
         <v>35</v>
@@ -11953,10 +11959,10 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O53">
         <v>5</v>
@@ -11971,25 +11977,25 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>43517</v>
+        <v>43518</v>
       </c>
       <c r="B54" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C54">
         <v>6</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G54">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -12001,7 +12007,7 @@
         <v>4</v>
       </c>
       <c r="K54">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -12010,31 +12016,31 @@
         <v>6</v>
       </c>
       <c r="N54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P54">
         <v>6</v>
       </c>
       <c r="V54">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43517</v>
       </c>
-      <c r="B55" t="s">
-        <v>244</v>
+      <c r="B55" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -12046,16 +12052,16 @@
         <v>35</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K55">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -12082,13 +12088,13 @@
         <v>43517</v>
       </c>
       <c r="B56" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -12097,31 +12103,31 @@
         <v>8</v>
       </c>
       <c r="G56">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K56">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
       <c r="M56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P56">
         <v>6</v>
@@ -12136,43 +12142,43 @@
         <v>43517</v>
       </c>
       <c r="B57" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>4</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G57">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K57">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O57">
         <v>5</v>
@@ -12190,25 +12196,25 @@
         <v>43517</v>
       </c>
       <c r="B58" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>4</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G58">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -12217,22 +12223,22 @@
         <v>5</v>
       </c>
       <c r="K58">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
       <c r="M58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N58">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O58">
         <v>6</v>
       </c>
       <c r="P58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V58">
         <f t="shared" si="3"/>
@@ -12241,82 +12247,70 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>43516</v>
+        <v>43517</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C59">
         <v>6</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59">
-        <f>R59+T59</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>4</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K59">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P59">
         <v>7</v>
       </c>
-      <c r="Q59">
-        <v>5</v>
-      </c>
-      <c r="R59">
-        <v>13</v>
-      </c>
-      <c r="S59">
-        <v>5</v>
-      </c>
-      <c r="T59">
-        <v>19</v>
-      </c>
-      <c r="U59">
-        <v>6</v>
+      <c r="V59">
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>43513</v>
+        <v>43517</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E60">
         <v>4</v>
@@ -12325,8 +12319,7 @@
         <v>5</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60:G85" si="4">R60+T60</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>4</v>
@@ -12335,205 +12328,194 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K60">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P60">
-        <v>6</v>
-      </c>
-      <c r="Q60">
-        <v>7</v>
-      </c>
-      <c r="R60">
-        <v>10</v>
-      </c>
-      <c r="S60">
-        <v>5</v>
-      </c>
-      <c r="T60">
-        <v>24</v>
-      </c>
-      <c r="U60">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
+        <v>43516</v>
+      </c>
+      <c r="B61" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <f>R61+T61</f>
+        <v>32</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>31</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>8</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61">
+        <v>4</v>
+      </c>
+      <c r="P61">
+        <v>7</v>
+      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+      <c r="R61">
+        <v>13</v>
+      </c>
+      <c r="S61">
+        <v>5</v>
+      </c>
+      <c r="T61">
+        <v>19</v>
+      </c>
+      <c r="U61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>43513</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ref="G62:G87" si="4">R62+T62</f>
+        <v>34</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <v>32</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>9</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62">
+        <v>4</v>
+      </c>
+      <c r="P62">
+        <v>6</v>
+      </c>
+      <c r="Q62">
+        <v>7</v>
+      </c>
+      <c r="R62">
+        <v>10</v>
+      </c>
+      <c r="S62">
+        <v>5</v>
+      </c>
+      <c r="T62">
+        <v>24</v>
+      </c>
+      <c r="U62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>43513</v>
+      </c>
+      <c r="B63" t="s">
         <v>213</v>
       </c>
-      <c r="C61">
-        <v>7</v>
-      </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-      <c r="E61">
-        <v>5</v>
-      </c>
-      <c r="F61">
-        <v>10</v>
-      </c>
-      <c r="G61">
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="H61">
-        <v>5</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>4</v>
-      </c>
-      <c r="K61">
-        <v>30</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>7</v>
-      </c>
-      <c r="N61">
-        <v>4</v>
-      </c>
-      <c r="O61">
-        <v>6</v>
-      </c>
-      <c r="P61">
-        <v>7</v>
-      </c>
-      <c r="Q61">
-        <v>5</v>
-      </c>
-      <c r="R61">
-        <v>12</v>
-      </c>
-      <c r="S61">
-        <v>4</v>
-      </c>
-      <c r="T61">
-        <v>18</v>
-      </c>
-      <c r="U61">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>43512</v>
-      </c>
-      <c r="B62" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62">
-        <v>6</v>
-      </c>
-      <c r="D62">
-        <v>6</v>
-      </c>
-      <c r="E62">
-        <v>5</v>
-      </c>
-      <c r="F62">
-        <v>10</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="H62">
-        <v>4</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>5</v>
-      </c>
-      <c r="K62">
-        <v>30</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>8</v>
-      </c>
-      <c r="N62">
-        <v>5</v>
-      </c>
-      <c r="O62">
-        <v>5</v>
-      </c>
-      <c r="P62">
-        <v>6</v>
-      </c>
-      <c r="Q62">
-        <v>6</v>
-      </c>
-      <c r="R62">
-        <v>10</v>
-      </c>
-      <c r="S62">
-        <v>5</v>
-      </c>
-      <c r="T62">
-        <v>20</v>
-      </c>
-      <c r="U62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>43509</v>
-      </c>
-      <c r="B63" t="s">
-        <v>215</v>
-      </c>
-      <c r="C63">
-        <v>6</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-      <c r="E63">
-        <v>4</v>
-      </c>
-      <c r="F63">
-        <v>11</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
       <c r="H63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K63">
         <v>30</v>
@@ -12542,64 +12524,64 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P63">
         <v>7</v>
       </c>
       <c r="Q63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R63">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T63">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U63">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>43508</v>
+        <v>43512</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E64">
         <v>5</v>
       </c>
       <c r="F64">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G64">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K64">
         <v>30</v>
@@ -12608,79 +12590,79 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R64">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T64">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U64">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>43508</v>
+        <v>43509</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>6</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G65">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K65">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P65">
         <v>7</v>
@@ -12695,18 +12677,18 @@
         <v>0</v>
       </c>
       <c r="T65">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U65">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>43504</v>
+        <v>43508</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C66">
         <v>7</v>
@@ -12718,32 +12700,32 @@
         <v>5</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G66">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K66">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
       <c r="M66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O66">
         <v>6</v>
@@ -12758,10 +12740,10 @@
         <v>11</v>
       </c>
       <c r="S66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U66">
         <v>7</v>
@@ -12769,26 +12751,26 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>43503</v>
+        <v>43508</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="C67">
         <v>7</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E67">
         <v>5</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G67">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>5</v>
@@ -12797,7 +12779,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K67">
         <v>32</v>
@@ -12818,7 +12800,7 @@
         <v>7</v>
       </c>
       <c r="Q67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R67">
         <v>11</v>
@@ -12827,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="T67">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U67">
         <v>7</v>
@@ -12835,35 +12817,35 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>43503</v>
+        <v>43504</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G68">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K68">
         <v>32</v>
@@ -12872,31 +12854,31 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q68">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R68">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T68">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U68">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -12904,23 +12886,23 @@
         <v>43503</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E69">
         <v>5</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G69">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -12929,40 +12911,40 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K69">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
       <c r="M69">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N69">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P69">
         <v>7</v>
       </c>
       <c r="Q69">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R69">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S69">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T69">
         <v>22</v>
       </c>
       <c r="U69">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
@@ -12970,125 +12952,125 @@
         <v>43503</v>
       </c>
       <c r="B70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D70">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E70">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F70">
         <v>5</v>
       </c>
       <c r="G70">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K70">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="M70">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R70">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T70">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>43502</v>
+        <v>43503</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="C71">
         <v>6</v>
       </c>
       <c r="D71">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71">
         <v>5</v>
       </c>
       <c r="G71">
         <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
         <v>34</v>
       </c>
-      <c r="H71">
-        <v>5</v>
-      </c>
-      <c r="I71">
-        <v>4</v>
-      </c>
-      <c r="J71">
-        <v>5</v>
-      </c>
-      <c r="K71">
-        <v>30</v>
-      </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q71">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R71">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T71">
         <v>22</v>
@@ -13099,38 +13081,38 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>43502</v>
+        <v>43503</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G72">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -13139,52 +13121,52 @@
         <v>7</v>
       </c>
       <c r="N72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P72">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q72">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R72">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T72">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U72">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>43500</v>
+        <v>43502</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F73">
         <v>5</v>
       </c>
       <c r="G73">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -13202,10 +13184,10 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O73">
         <v>5</v>
@@ -13214,99 +13196,99 @@
         <v>6</v>
       </c>
       <c r="Q73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R73">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T73">
         <v>22</v>
       </c>
       <c r="U73">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>43497</v>
+        <v>43502</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74">
         <v>6</v>
       </c>
       <c r="G74">
         <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+      <c r="K74">
         <v>32</v>
       </c>
-      <c r="H74">
-        <v>5</v>
-      </c>
-      <c r="I74">
-        <v>4</v>
-      </c>
-      <c r="J74">
-        <v>5</v>
-      </c>
-      <c r="K74">
-        <v>31</v>
-      </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R74">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T74">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U74">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>43496</v>
+        <v>43500</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D75">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -13316,7 +13298,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -13325,76 +13307,76 @@
         <v>4</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K75">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>7</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q75">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R75">
         <v>9</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T75">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>43495</v>
+        <v>43497</v>
       </c>
       <c r="B76" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F76">
         <v>6</v>
       </c>
       <c r="G76">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I76">
         <v>4</v>
       </c>
       <c r="J76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K76">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -13406,49 +13388,49 @@
         <v>4</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S76">
         <v>4</v>
       </c>
       <c r="T76">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U76">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>43495</v>
+        <v>43496</v>
       </c>
       <c r="B77" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E77">
         <v>4</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G77">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H77">
         <v>5</v>
@@ -13457,40 +13439,40 @@
         <v>4</v>
       </c>
       <c r="J77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M77">
         <v>7</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P77">
         <v>7</v>
       </c>
       <c r="Q77">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R77">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T77">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U77">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
@@ -13498,47 +13480,47 @@
         <v>43495</v>
       </c>
       <c r="B78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D78">
         <v>6</v>
       </c>
       <c r="E78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G78">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>4</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K78">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N78">
         <v>4</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P78">
         <v>6</v>
@@ -13553,10 +13535,10 @@
         <v>4</v>
       </c>
       <c r="T78">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U78">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
@@ -13564,23 +13546,23 @@
         <v>43495</v>
       </c>
       <c r="B79" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G79">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H79">
         <v>5</v>
@@ -13589,10 +13571,10 @@
         <v>4</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K79">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -13604,33 +13586,33 @@
         <v>4</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P79">
         <v>7</v>
       </c>
       <c r="Q79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R79">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S79">
         <v>4</v>
       </c>
       <c r="T79">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U79">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>43489</v>
+        <v>43495</v>
       </c>
       <c r="B80" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -13642,17 +13624,17 @@
         <v>6</v>
       </c>
       <c r="F80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G80">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>4</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -13670,7 +13652,7 @@
         <v>4</v>
       </c>
       <c r="O80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P80">
         <v>6</v>
@@ -13679,13 +13661,13 @@
         <v>6</v>
       </c>
       <c r="R80">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S80">
         <v>4</v>
       </c>
       <c r="T80">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="U80">
         <v>6</v>
@@ -13693,32 +13675,32 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>43487</v>
+        <v>43495</v>
       </c>
       <c r="B81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E81">
         <v>5</v>
       </c>
       <c r="F81">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G81">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>5</v>
       </c>
       <c r="I81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -13736,64 +13718,67 @@
         <v>4</v>
       </c>
       <c r="O81">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P81">
         <v>7</v>
       </c>
       <c r="Q81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R81">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S81">
         <v>4</v>
       </c>
       <c r="T81">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="U81">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>43482</v>
+        <v>43489</v>
       </c>
       <c r="B82" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
       </c>
       <c r="D82">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F82">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G82">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K82">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
       <c r="M82">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N82">
         <v>4</v>
@@ -13802,13 +13787,13 @@
         <v>5</v>
       </c>
       <c r="P82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q82">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R82">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S82">
         <v>4</v>
@@ -13816,73 +13801,82 @@
       <c r="T82">
         <v>15</v>
       </c>
+      <c r="U82">
+        <v>6</v>
+      </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>43482</v>
+        <v>43487</v>
       </c>
       <c r="B83" t="s">
-        <v>233</v>
+        <v>231</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E83">
         <v>5</v>
       </c>
       <c r="F83">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G83">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H83">
         <v>5</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K83">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N83">
         <v>4</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P83">
         <v>7</v>
       </c>
       <c r="Q83">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R83">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S83">
         <v>4</v>
       </c>
       <c r="T83">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="U83">
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="B84" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D84">
         <v>12</v>
@@ -13891,26 +13885,29 @@
         <v>5</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G84">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J84">
         <v>4</v>
       </c>
       <c r="K84">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N84">
         <v>4</v>
@@ -13919,84 +13916,201 @@
         <v>5</v>
       </c>
       <c r="P84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q84">
         <v>12</v>
       </c>
       <c r="R84">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S84">
         <v>4</v>
       </c>
       <c r="T84">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
-      </c>
-      <c r="C85">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="D85">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E85">
         <v>5</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G85">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I85">
         <v>4</v>
       </c>
       <c r="J85">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K85">
+        <v>33</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>9</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85">
+        <v>4</v>
+      </c>
+      <c r="P85">
+        <v>7</v>
+      </c>
+      <c r="Q85">
+        <v>10</v>
+      </c>
+      <c r="R85">
+        <v>15</v>
+      </c>
+      <c r="S85">
+        <v>4</v>
+      </c>
+      <c r="T85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>43481</v>
+      </c>
+      <c r="B86" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="H86">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>6</v>
+      </c>
+      <c r="J86">
+        <v>4</v>
+      </c>
+      <c r="K86">
+        <v>31</v>
+      </c>
+      <c r="M86">
+        <v>7</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86">
+        <v>5</v>
+      </c>
+      <c r="P86">
+        <v>6</v>
+      </c>
+      <c r="Q86">
+        <v>12</v>
+      </c>
+      <c r="R86">
+        <v>10</v>
+      </c>
+      <c r="S86">
+        <v>4</v>
+      </c>
+      <c r="T86">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>43481</v>
+      </c>
+      <c r="B87" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+      <c r="J87">
+        <v>6</v>
+      </c>
+      <c r="K87">
         <v>32</v>
       </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>8</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85">
-        <v>6</v>
-      </c>
-      <c r="P85">
-        <v>7</v>
-      </c>
-      <c r="Q85">
-        <v>6</v>
-      </c>
-      <c r="R85">
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>8</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>6</v>
+      </c>
+      <c r="P87">
+        <v>7</v>
+      </c>
+      <c r="Q87">
+        <v>6</v>
+      </c>
+      <c r="R87">
         <v>14</v>
       </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85">
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
         <v>13</v>
       </c>
-      <c r="U85">
+      <c r="U87">
         <v>6</v>
       </c>
     </row>
